--- a/setup_success_test.xlsx
+++ b/setup_success_test.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Qualitest\OneDrive\Asm\Kdt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Qualitest\kdt\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -83,69 +83,68 @@
     <t>Browser</t>
   </si>
   <si>
+    <t>NavigateTo</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>http://qualitestgroup.com</t>
+  </si>
+  <si>
+    <t>GetPageTitle</t>
+  </si>
+  <si>
+    <t>SaveTo</t>
+  </si>
+  <si>
+    <t>$title</t>
+  </si>
+  <si>
+    <t>Validate</t>
+  </si>
+  <si>
+    <t>Common</t>
+  </si>
+  <si>
+    <t>Value1</t>
+  </si>
+  <si>
+    <t>Value2</t>
+  </si>
+  <si>
+    <t>StopOnFail</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
     <t>IE</t>
   </si>
   <si>
-    <t>NavigateTo</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>http://qualitestgroup.com</t>
-  </si>
-  <si>
-    <t>GetPageTitle</t>
-  </si>
-  <si>
-    <t>SaveTo</t>
-  </si>
-  <si>
-    <t>$title</t>
-  </si>
-  <si>
-    <t>Validate</t>
-  </si>
-  <si>
-    <t>Common</t>
-  </si>
-  <si>
-    <t>Value1</t>
-  </si>
-  <si>
-    <t>Value2</t>
-  </si>
-  <si>
-    <t>StopOnFail</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Close</t>
-  </si>
-  <si>
-    <t>WebDriver</t>
-  </si>
-  <si>
-    <t>file:/C:/Users/Lewis/kdt/reports/KDT_2017-12-13T125619.663-0500/Debug.log</t>
-  </si>
-  <si>
-    <t>file:/C:/Users/Lewis/kdt/reports/KDT_2017-12-13T125619.663-0500/TestLog.html</t>
-  </si>
-  <si>
-    <t>Passed</t>
-  </si>
-  <si>
-    <t>Wed Dec 13 12:56:55 EST 2017</t>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>file:/C:/Users/Qualitest/kdt/reports/KDT_2017-12-14T151221.829-0500/Debug.log</t>
+  </si>
+  <si>
+    <t>file:/C:/Users/Qualitest/kdt/reports/KDT_2017-12-14T151221.829-0500/TestLog.html</t>
+  </si>
+  <si>
+    <t>Thu Dec 14 15:12:24 EST 2017</t>
+  </si>
+  <si>
+    <t>Independent Software testing Company &amp; QA Outsourcing services</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -154,10 +153,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -177,14 +184,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -551,15 +561,15 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" t="s" s="1">
+        <v>34</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G2" t="s" s="1">
+      <c r="G2" s="1" t="s">
         <v>36</v>
       </c>
     </row>
@@ -567,6 +577,24 @@
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1"/>
     <hyperlink ref="G2" r:id="rId2"/>
+    <hyperlink ref="F2" r:id="rId3"/>
+    <hyperlink ref="G2" r:id="rId4"/>
+    <hyperlink ref="F2" r:id="rId5"/>
+    <hyperlink ref="G2" r:id="rId6"/>
+    <hyperlink ref="F2" r:id="rId7"/>
+    <hyperlink ref="G2" r:id="rId8"/>
+    <hyperlink ref="F2" r:id="rId9"/>
+    <hyperlink ref="G2" r:id="rId10"/>
+    <hyperlink ref="F2" r:id="rId11"/>
+    <hyperlink ref="G2" r:id="rId12"/>
+    <hyperlink ref="F2" r:id="rId13"/>
+    <hyperlink ref="G2" r:id="rId14"/>
+    <hyperlink ref="F2" r:id="rId15"/>
+    <hyperlink ref="G2" r:id="rId16"/>
+    <hyperlink ref="F2" r:id="rId17"/>
+    <hyperlink ref="G2" r:id="rId18"/>
+    <hyperlink ref="F2" r:id="rId19"/>
+    <hyperlink ref="G2" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -577,7 +605,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,7 +643,7 @@
         <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -623,7 +651,7 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
@@ -631,10 +659,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -642,7 +670,7 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
@@ -650,10 +678,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
         <v>25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -661,34 +689,34 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
         <v>27</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s">
         <v>31</v>
-      </c>
-      <c r="E11" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -696,15 +724,18 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E5" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
